--- a/data/trans_dic/P36BPD01_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD01_2023-Clase-trans_dic.xlsx
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.9688407865891908</v>
+        <v>0.9688407865891909</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.9668688177433021</v>
+        <v>0.9668688177433019</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.9679125613834296</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9486566781044103</v>
+        <v>0.949112604234548</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9457624966774859</v>
+        <v>0.9470289136166767</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9542227570944616</v>
+        <v>0.9553144624038989</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9826049762728986</v>
+        <v>0.9810475495051489</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9806071666440106</v>
+        <v>0.9802541984925852</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9773313463567906</v>
+        <v>0.9773888667373192</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.964986422281728</v>
+        <v>0.9649864222817283</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.9589714513983768</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.9419653512492826</v>
+        <v>0.9430737399669686</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.9404653850303378</v>
+        <v>0.9395827339663141</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.9468874060817364</v>
+        <v>0.9477549553035984</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9803214007735968</v>
+        <v>0.9810481980983593</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9731321004269297</v>
+        <v>0.9745874429249255</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9729058962074807</v>
+        <v>0.973719273126821</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.9759209494797515</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.9581001068688927</v>
+        <v>0.9581001068688928</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9288397380767225</v>
+        <v>0.9280483087965179</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9529037215718889</v>
+        <v>0.9547975272040666</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9387445343475149</v>
+        <v>0.9404865968669291</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9688116152130378</v>
+        <v>0.9664678053062834</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9889402524952184</v>
+        <v>0.9904877762757426</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9704576441345254</v>
+        <v>0.9706759109401044</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9029264495716309</v>
+        <v>0.904670162908139</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.9163439959371812</v>
+        <v>0.9164279548991729</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9148768977861664</v>
+        <v>0.9151029110031218</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9422962032061741</v>
+        <v>0.9449817019360346</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.949322860160138</v>
+        <v>0.9473355276086863</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9409204528595689</v>
+        <v>0.9412658272602143</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.8951087659465451</v>
+        <v>0.895108765946545</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.9372316837580456</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8650494847798209</v>
+        <v>0.864555070309153</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9209068190360103</v>
+        <v>0.9189989356911801</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9042372640455417</v>
+        <v>0.9045304458785526</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9222337860874551</v>
+        <v>0.9207170946883478</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9512439092717409</v>
+        <v>0.9507056195125563</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9338604777575387</v>
+        <v>0.9330888051781367</v>
       </c>
     </row>
     <row r="19">
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.9272404877348005</v>
+        <v>0.9272404877348004</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.9389756629511458</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.8576565426039178</v>
+        <v>0.8551278052894725</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.9173387011372214</v>
+        <v>0.9107490314475378</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9146002112778926</v>
+        <v>0.9169072734020962</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9695049191731715</v>
+        <v>0.9675353188990856</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9539203497984167</v>
+        <v>0.9534512592449341</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9513539385164513</v>
+        <v>0.9520436055020456</v>
       </c>
     </row>
     <row r="22">
@@ -894,7 +894,7 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.9368784034051381</v>
+        <v>0.9368784034051378</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>0.9451325129218995</v>
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.9257122504811628</v>
+        <v>0.9262387467525415</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.9373521888275629</v>
+        <v>0.9369771217226123</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.9353340576430585</v>
+        <v>0.9353652313029859</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9472926997853349</v>
+        <v>0.9457828117538439</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9523952689520947</v>
+        <v>0.9520366726612851</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9471788110113101</v>
+        <v>0.9475376871484785</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>520997</v>
+        <v>521247</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>461921</v>
+        <v>462539</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>990106</v>
+        <v>991239</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>539641</v>
+        <v>538785</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>478939</v>
+        <v>478767</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>1014084</v>
+        <v>1014144</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>452218</v>
+        <v>452750</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>397951</v>
+        <v>397578</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>855250</v>
+        <v>856033</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>470632</v>
+        <v>470981</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>411774</v>
+        <v>412390</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>878750</v>
+        <v>879485</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>434925</v>
+        <v>434555</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>178667</v>
+        <v>179022</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>615575</v>
+        <v>616718</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>453642</v>
+        <v>452545</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>185423</v>
+        <v>185713</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>636371</v>
+        <v>636514</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1018540</v>
+        <v>1020507</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>787160</v>
+        <v>787232</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1817920</v>
+        <v>1818369</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>1062951</v>
+        <v>1065980</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>815489</v>
+        <v>813782</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1869670</v>
+        <v>1870356</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>490462</v>
+        <v>490182</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>765135</v>
+        <v>763550</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1263966</v>
+        <v>1264376</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>522884</v>
+        <v>522024</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>790341</v>
+        <v>789894</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1305374</v>
+        <v>1304296</v>
       </c>
     </row>
     <row r="24">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>199545</v>
+        <v>198957</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>769613</v>
+        <v>764085</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>980109</v>
+        <v>982582</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>225568</v>
+        <v>225110</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>800304</v>
+        <v>799910</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1019496</v>
+        <v>1020235</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>3170751</v>
+        <v>3172555</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>3400606</v>
+        <v>3399245</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>6596992</v>
+        <v>6597212</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>3244669</v>
+        <v>3239497</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>3455181</v>
+        <v>3453880</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>6680535</v>
+        <v>6683066</v>
       </c>
     </row>
     <row r="32">
